--- a/Resources/end_credit.xlsx
+++ b/Resources/end_credit.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
-    <t>Cryptocurrency Pricing Summary on 13 Aug 2022</t>
+    <t>Cryptocurrency Pricing Summary on 14 Aug 2022</t>
   </si>
   <si>
     <t>Remark:</t>
